--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,1549 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H2">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I2">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J2">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10485517743461</v>
+        <v>1.112297333333333</v>
       </c>
       <c r="N2">
-        <v>1.10485517743461</v>
+        <v>3.336892</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.684758811193963</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6996182061770509</v>
       </c>
       <c r="Q2">
-        <v>14.07169385760121</v>
+        <v>14.25245450805511</v>
       </c>
       <c r="R2">
-        <v>14.07169385760121</v>
+        <v>128.272090572496</v>
       </c>
       <c r="S2">
-        <v>0.3772260041988996</v>
+        <v>0.2377229224620812</v>
       </c>
       <c r="T2">
-        <v>0.3772260041988996</v>
+        <v>0.2491435706967319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.3153615860542</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H3">
-        <v>18.3153615860542</v>
+        <v>38.440588</v>
       </c>
       <c r="I3">
-        <v>0.5424704644839665</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J3">
-        <v>0.5424704644839665</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.10485517743461</v>
+        <v>0.1350806666666667</v>
       </c>
       <c r="N3">
-        <v>1.10485517743461</v>
+        <v>0.405242</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.08315912836431742</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.08496369708926763</v>
       </c>
       <c r="Q3">
-        <v>20.23582207493895</v>
+        <v>1.730860084699555</v>
       </c>
       <c r="R3">
-        <v>20.23582207493895</v>
+        <v>15.577740762296</v>
       </c>
       <c r="S3">
-        <v>0.5424704644839665</v>
+        <v>0.02886977239430544</v>
       </c>
       <c r="T3">
-        <v>0.5424704644839665</v>
+        <v>0.03025672957838762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>12.81352933333333</v>
+      </c>
+      <c r="H4">
+        <v>38.440588</v>
+      </c>
+      <c r="I4">
+        <v>0.3471629989654041</v>
+      </c>
+      <c r="J4">
+        <v>0.3561136181091343</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.123305</v>
+      </c>
+      <c r="N4">
+        <v>0.369915</v>
+      </c>
+      <c r="O4">
+        <v>0.07590972546993273</v>
+      </c>
+      <c r="P4">
+        <v>0.07755698078870511</v>
+      </c>
+      <c r="Q4">
+        <v>1.579972234446667</v>
+      </c>
+      <c r="R4">
+        <v>14.21975011002</v>
+      </c>
+      <c r="S4">
+        <v>0.02635304794478237</v>
+      </c>
+      <c r="T4">
+        <v>0.0276190970382864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>12.81352933333333</v>
+      </c>
+      <c r="H5">
+        <v>38.440588</v>
+      </c>
+      <c r="I5">
+        <v>0.3471629989654041</v>
+      </c>
+      <c r="J5">
+        <v>0.3561136181091343</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1501796666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.450539</v>
+      </c>
+      <c r="O5">
+        <v>0.09245446062878777</v>
+      </c>
+      <c r="P5">
+        <v>0.09446073981201739</v>
+      </c>
+      <c r="Q5">
+        <v>1.924331564103556</v>
+      </c>
+      <c r="R5">
+        <v>17.318984076932</v>
+      </c>
+      <c r="S5">
+        <v>0.03209676781961885</v>
+      </c>
+      <c r="T5">
+        <v>0.03363875582372305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12.81352933333333</v>
+      </c>
+      <c r="H6">
+        <v>38.440588</v>
+      </c>
+      <c r="I6">
+        <v>0.3471629989654041</v>
+      </c>
+      <c r="J6">
+        <v>0.3561136181091343</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.103501</v>
+      </c>
+      <c r="N6">
+        <v>0.207002</v>
+      </c>
+      <c r="O6">
+        <v>0.06371787434299912</v>
+      </c>
+      <c r="P6">
+        <v>0.04340037613295902</v>
+      </c>
+      <c r="Q6">
+        <v>1.326213099529333</v>
+      </c>
+      <c r="R6">
+        <v>7.957278597175999</v>
+      </c>
+      <c r="S6">
+        <v>0.02212048834461636</v>
+      </c>
+      <c r="T6">
+        <v>0.01545546497200535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.71127795705789</v>
-      </c>
-      <c r="H4">
-        <v>2.71127795705789</v>
-      </c>
-      <c r="I4">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="J4">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.10485517743461</v>
-      </c>
-      <c r="N4">
-        <v>1.10485517743461</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2.995569488319742</v>
-      </c>
-      <c r="R4">
-        <v>2.995569488319742</v>
-      </c>
-      <c r="S4">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="T4">
-        <v>0.08030353131713384</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>20.812745</v>
+      </c>
+      <c r="H7">
+        <v>62.438235</v>
+      </c>
+      <c r="I7">
+        <v>0.563889525121381</v>
+      </c>
+      <c r="J7">
+        <v>0.5784278267074995</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.112297333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.336892</v>
+      </c>
+      <c r="O7">
+        <v>0.684758811193963</v>
+      </c>
+      <c r="P7">
+        <v>0.6996182061770509</v>
+      </c>
+      <c r="Q7">
+        <v>23.14996076284667</v>
+      </c>
+      <c r="R7">
+        <v>208.34964686562</v>
+      </c>
+      <c r="S7">
+        <v>0.3861283208668452</v>
+      </c>
+      <c r="T7">
+        <v>0.4046786385239909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>20.812745</v>
+      </c>
+      <c r="H8">
+        <v>62.438235</v>
+      </c>
+      <c r="I8">
+        <v>0.563889525121381</v>
+      </c>
+      <c r="J8">
+        <v>0.5784278267074995</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1350806666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.405242</v>
+      </c>
+      <c r="O8">
+        <v>0.08315912836431742</v>
+      </c>
+      <c r="P8">
+        <v>0.08496369708926763</v>
+      </c>
+      <c r="Q8">
+        <v>2.811399469763333</v>
+      </c>
+      <c r="R8">
+        <v>25.30259522787</v>
+      </c>
+      <c r="S8">
+        <v>0.04689256140286292</v>
+      </c>
+      <c r="T8">
+        <v>0.04914536665637937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20.812745</v>
+      </c>
+      <c r="H9">
+        <v>62.438235</v>
+      </c>
+      <c r="I9">
+        <v>0.563889525121381</v>
+      </c>
+      <c r="J9">
+        <v>0.5784278267074995</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.123305</v>
+      </c>
+      <c r="N9">
+        <v>0.369915</v>
+      </c>
+      <c r="O9">
+        <v>0.07590972546993273</v>
+      </c>
+      <c r="P9">
+        <v>0.07755698078870511</v>
+      </c>
+      <c r="Q9">
+        <v>2.566315522225</v>
+      </c>
+      <c r="R9">
+        <v>23.096839700025</v>
+      </c>
+      <c r="S9">
+        <v>0.04280469904733477</v>
+      </c>
+      <c r="T9">
+        <v>0.04486111584360599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>20.812745</v>
+      </c>
+      <c r="H10">
+        <v>62.438235</v>
+      </c>
+      <c r="I10">
+        <v>0.563889525121381</v>
+      </c>
+      <c r="J10">
+        <v>0.5784278267074995</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1501796666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.450539</v>
+      </c>
+      <c r="O10">
+        <v>0.09245446062878777</v>
+      </c>
+      <c r="P10">
+        <v>0.09446073981201739</v>
+      </c>
+      <c r="Q10">
+        <v>3.125651106518334</v>
+      </c>
+      <c r="R10">
+        <v>28.130859958665</v>
+      </c>
+      <c r="S10">
+        <v>0.05213410189932056</v>
+      </c>
+      <c r="T10">
+        <v>0.05463872043864779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>20.812745</v>
+      </c>
+      <c r="H11">
+        <v>62.438235</v>
+      </c>
+      <c r="I11">
+        <v>0.563889525121381</v>
+      </c>
+      <c r="J11">
+        <v>0.5784278267074995</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.103501</v>
+      </c>
+      <c r="N11">
+        <v>0.207002</v>
+      </c>
+      <c r="O11">
+        <v>0.06371787434299912</v>
+      </c>
+      <c r="P11">
+        <v>0.04340037613295902</v>
+      </c>
+      <c r="Q11">
+        <v>2.154139920245</v>
+      </c>
+      <c r="R11">
+        <v>12.92483952147</v>
+      </c>
+      <c r="S11">
+        <v>0.0359298419050176</v>
+      </c>
+      <c r="T11">
+        <v>0.02510398524487551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.341023</v>
+      </c>
+      <c r="I12">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J12">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.112297333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.336892</v>
+      </c>
+      <c r="O12">
+        <v>0.684758811193963</v>
+      </c>
+      <c r="P12">
+        <v>0.6996182061770509</v>
+      </c>
+      <c r="Q12">
+        <v>0.497205435612889</v>
+      </c>
+      <c r="R12">
+        <v>4.474848920516001</v>
+      </c>
+      <c r="S12">
+        <v>0.008293106927731372</v>
+      </c>
+      <c r="T12">
+        <v>0.00869152310069876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.341023</v>
+      </c>
+      <c r="I13">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J13">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1350806666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.405242</v>
+      </c>
+      <c r="O13">
+        <v>0.08315912836431742</v>
+      </c>
+      <c r="P13">
+        <v>0.08496369708926763</v>
+      </c>
+      <c r="Q13">
+        <v>0.06038209361844444</v>
+      </c>
+      <c r="R13">
+        <v>0.5434388425660001</v>
+      </c>
+      <c r="S13">
+        <v>0.001007139349312988</v>
+      </c>
+      <c r="T13">
+        <v>0.001055524183693499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.341023</v>
+      </c>
+      <c r="I14">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J14">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.123305</v>
+      </c>
+      <c r="N14">
+        <v>0.369915</v>
+      </c>
+      <c r="O14">
+        <v>0.07590972546993273</v>
+      </c>
+      <c r="P14">
+        <v>0.07755698078870511</v>
+      </c>
+      <c r="Q14">
+        <v>0.05511828033833333</v>
+      </c>
+      <c r="R14">
+        <v>0.496064523045</v>
+      </c>
+      <c r="S14">
+        <v>0.000919341905333391</v>
+      </c>
+      <c r="T14">
+        <v>0.0009635087883560456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.341023</v>
+      </c>
+      <c r="I15">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J15">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1501796666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.450539</v>
+      </c>
+      <c r="O15">
+        <v>0.09245446062878777</v>
+      </c>
+      <c r="P15">
+        <v>0.09446073981201739</v>
+      </c>
+      <c r="Q15">
+        <v>0.06713146237744445</v>
+      </c>
+      <c r="R15">
+        <v>0.604183161397</v>
+      </c>
+      <c r="S15">
+        <v>0.001119715022875528</v>
+      </c>
+      <c r="T15">
+        <v>0.001173508200524835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.341023</v>
+      </c>
+      <c r="I16">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J16">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.103501</v>
+      </c>
+      <c r="N16">
+        <v>0.207002</v>
+      </c>
+      <c r="O16">
+        <v>0.06371787434299912</v>
+      </c>
+      <c r="P16">
+        <v>0.04340037613295902</v>
+      </c>
+      <c r="Q16">
+        <v>0.04626574050766667</v>
+      </c>
+      <c r="R16">
+        <v>0.277594443046</v>
+      </c>
+      <c r="S16">
+        <v>0.000771686521583969</v>
+      </c>
+      <c r="T16">
+        <v>0.000539173178182226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.158782</v>
+      </c>
+      <c r="I17">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J17">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.112297333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.336892</v>
+      </c>
+      <c r="O17">
+        <v>0.684758811193963</v>
+      </c>
+      <c r="P17">
+        <v>0.6996182061770509</v>
+      </c>
+      <c r="Q17">
+        <v>0.05887093172711112</v>
+      </c>
+      <c r="R17">
+        <v>0.5298383855440001</v>
+      </c>
+      <c r="S17">
+        <v>0.0009819340191771825</v>
+      </c>
+      <c r="T17">
+        <v>0.001029107942947399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.158782</v>
+      </c>
+      <c r="I18">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J18">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1350806666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.405242</v>
+      </c>
+      <c r="O18">
+        <v>0.08315912836431742</v>
+      </c>
+      <c r="P18">
+        <v>0.08496369708926763</v>
+      </c>
+      <c r="Q18">
+        <v>0.007149459471555555</v>
+      </c>
+      <c r="R18">
+        <v>0.064345135244</v>
+      </c>
+      <c r="S18">
+        <v>0.0001192489615484707</v>
+      </c>
+      <c r="T18">
+        <v>0.0001249779018967021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.158782</v>
+      </c>
+      <c r="I19">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J19">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.123305</v>
+      </c>
+      <c r="N19">
+        <v>0.369915</v>
+      </c>
+      <c r="O19">
+        <v>0.07590972546993273</v>
+      </c>
+      <c r="P19">
+        <v>0.07755698078870511</v>
+      </c>
+      <c r="Q19">
+        <v>0.006526204836666666</v>
+      </c>
+      <c r="R19">
+        <v>0.05873584353</v>
+      </c>
+      <c r="S19">
+        <v>0.0001088534248947606</v>
+      </c>
+      <c r="T19">
+        <v>0.0001140829444631074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.158782</v>
+      </c>
+      <c r="I20">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J20">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1501796666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.450539</v>
+      </c>
+      <c r="O20">
+        <v>0.09245446062878777</v>
+      </c>
+      <c r="P20">
+        <v>0.09446073981201739</v>
+      </c>
+      <c r="Q20">
+        <v>0.007948609277555557</v>
+      </c>
+      <c r="R20">
+        <v>0.071537483498</v>
+      </c>
+      <c r="S20">
+        <v>0.0001325783306939717</v>
+      </c>
+      <c r="T20">
+        <v>0.0001389476385533539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.158782</v>
+      </c>
+      <c r="I21">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J21">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.103501</v>
+      </c>
+      <c r="N21">
+        <v>0.207002</v>
+      </c>
+      <c r="O21">
+        <v>0.06371787434299912</v>
+      </c>
+      <c r="P21">
+        <v>0.04340037613295902</v>
+      </c>
+      <c r="Q21">
+        <v>0.005478031927333333</v>
+      </c>
+      <c r="R21">
+        <v>0.032868191564</v>
+      </c>
+      <c r="S21">
+        <v>9.137049049132323E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.384006506833231E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.7830505</v>
+      </c>
+      <c r="H22">
+        <v>5.566101</v>
+      </c>
+      <c r="I22">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J22">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.112297333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.336892</v>
+      </c>
+      <c r="O22">
+        <v>0.684758811193963</v>
+      </c>
+      <c r="P22">
+        <v>0.6996182061770509</v>
+      </c>
+      <c r="Q22">
+        <v>3.095579649682</v>
+      </c>
+      <c r="R22">
+        <v>18.573477898092</v>
+      </c>
+      <c r="S22">
+        <v>0.05163252691812801</v>
+      </c>
+      <c r="T22">
+        <v>0.03607536591268194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.7830505</v>
+      </c>
+      <c r="H23">
+        <v>5.566101</v>
+      </c>
+      <c r="I23">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J23">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1350806666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.405242</v>
+      </c>
+      <c r="O23">
+        <v>0.08315912836431742</v>
+      </c>
+      <c r="P23">
+        <v>0.08496369708926763</v>
+      </c>
+      <c r="Q23">
+        <v>0.375936316907</v>
+      </c>
+      <c r="R23">
+        <v>2.255617901442</v>
+      </c>
+      <c r="S23">
+        <v>0.006270406256287595</v>
+      </c>
+      <c r="T23">
+        <v>0.004381098768910426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.7830505</v>
+      </c>
+      <c r="H24">
+        <v>5.566101</v>
+      </c>
+      <c r="I24">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J24">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.123305</v>
+      </c>
+      <c r="N24">
+        <v>0.369915</v>
+      </c>
+      <c r="O24">
+        <v>0.07590972546993273</v>
+      </c>
+      <c r="P24">
+        <v>0.07755698078870511</v>
+      </c>
+      <c r="Q24">
+        <v>0.3431640419025</v>
+      </c>
+      <c r="R24">
+        <v>2.058984251415</v>
+      </c>
+      <c r="S24">
+        <v>0.005723783147587431</v>
+      </c>
+      <c r="T24">
+        <v>0.003999176173993565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.7830505</v>
+      </c>
+      <c r="H25">
+        <v>5.566101</v>
+      </c>
+      <c r="I25">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J25">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1501796666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.450539</v>
+      </c>
+      <c r="O25">
+        <v>0.09245446062878777</v>
+      </c>
+      <c r="P25">
+        <v>0.09446073981201739</v>
+      </c>
+      <c r="Q25">
+        <v>0.4179575964065</v>
+      </c>
+      <c r="R25">
+        <v>2.507745578439</v>
+      </c>
+      <c r="S25">
+        <v>0.006971297556278859</v>
+      </c>
+      <c r="T25">
+        <v>0.004870807710568338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.7830505</v>
+      </c>
+      <c r="H26">
+        <v>5.566101</v>
+      </c>
+      <c r="I26">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J26">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.103501</v>
+      </c>
+      <c r="N26">
+        <v>0.207002</v>
+      </c>
+      <c r="O26">
+        <v>0.06371787434299912</v>
+      </c>
+      <c r="P26">
+        <v>0.04340037613295902</v>
+      </c>
+      <c r="Q26">
+        <v>0.2880485098005</v>
+      </c>
+      <c r="R26">
+        <v>1.152194039202</v>
+      </c>
+      <c r="S26">
+        <v>0.004804487081289863</v>
+      </c>
+      <c r="T26">
+        <v>0.002237912672827585</v>
       </c>
     </row>
   </sheetData>
